--- a/data/trans_orig/P78_n_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78_n_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B14D1B4-7DC1-4786-A8B3-2F1F25224600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6AB15E4-3312-42D4-BF29-61881A610C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{579B5C71-624E-4E4A-9DC9-47D6930C681A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1C38AA85-D54F-414A-88B8-7EFA831454F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="132">
   <si>
     <t>Población con más de dos retrasos en pagos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -227,208 +227,214 @@
     <t>Población con más de dos retrasos en pagos en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
 </sst>
 </file>
@@ -840,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C353208C-434E-4B8A-8852-74EA7A636F3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54AB4C7-4B1B-4CC8-BD94-EC98833DA73C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1042,7 +1048,7 @@
         <v>2329</v>
       </c>
       <c r="N5" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1093,7 +1099,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1167,7 +1173,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1218,7 +1224,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1477,7 +1483,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1492,7 +1498,7 @@
         <v>3297</v>
       </c>
       <c r="I14" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1507,7 +1513,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1528,7 +1534,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1543,7 +1549,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1558,7 +1564,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1591,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB009D0-5A25-4026-9DF0-17CA908BB791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27139AFB-1C76-4D0C-B17A-08A8DDC76476}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1778,7 +1784,7 @@
         <v>1247</v>
       </c>
       <c r="I5" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1829,7 +1835,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2103,7 +2109,7 @@
         <v>850</v>
       </c>
       <c r="N11" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -2154,7 +2160,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2342,7 +2348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D21AB34-37D9-430F-9965-0D3871170124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714A95A-36A5-44FC-8281-E5EB6D21CBE5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2854,7 +2860,7 @@
         <v>1027</v>
       </c>
       <c r="N11" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -2905,7 +2911,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3093,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88F478F-DEE0-4B0A-A7D5-4FA853ED8F17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D2F05C-9E0F-43A7-90B4-78ACF004CB83}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3214,7 +3220,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="7">
-        <v>42777</v>
+        <v>37430</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>62</v>
@@ -3229,7 +3235,7 @@
         <v>88</v>
       </c>
       <c r="I4" s="7">
-        <v>57033</v>
+        <v>50120</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>65</v>
@@ -3244,7 +3250,7 @@
         <v>135</v>
       </c>
       <c r="N4" s="7">
-        <v>99810</v>
+        <v>87550</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>68</v>
@@ -3265,7 +3271,7 @@
         <v>644</v>
       </c>
       <c r="D5" s="7">
-        <v>498857</v>
+        <v>477508</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>71</v>
@@ -3280,7 +3286,7 @@
         <v>1339</v>
       </c>
       <c r="I5" s="7">
-        <v>778920</v>
+        <v>705388</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>74</v>
@@ -3295,7 +3301,7 @@
         <v>1983</v>
       </c>
       <c r="N5" s="7">
-        <v>1277776</v>
+        <v>1182896</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>77</v>
@@ -3316,7 +3322,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3331,7 +3337,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3346,7 +3352,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3369,7 +3375,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="7">
-        <v>90478</v>
+        <v>81100</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>80</v>
@@ -3384,7 +3390,7 @@
         <v>91</v>
       </c>
       <c r="I7" s="7">
-        <v>83081</v>
+        <v>73632</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>83</v>
@@ -3399,7 +3405,7 @@
         <v>173</v>
       </c>
       <c r="N7" s="7">
-        <v>173559</v>
+        <v>154733</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>86</v>
@@ -3420,7 +3426,7 @@
         <v>1910</v>
       </c>
       <c r="D8" s="7">
-        <v>2071544</v>
+        <v>2209227</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>89</v>
@@ -3435,7 +3441,7 @@
         <v>2830</v>
       </c>
       <c r="I8" s="7">
-        <v>2166439</v>
+        <v>2164191</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>92</v>
@@ -3450,7 +3456,7 @@
         <v>4740</v>
       </c>
       <c r="N8" s="7">
-        <v>4237984</v>
+        <v>4373417</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>95</v>
@@ -3471,7 +3477,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3486,7 +3492,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3501,7 +3507,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3524,46 +3530,46 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>8632</v>
+        <v>7565</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>7144</v>
+        <v>6592</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>19</v>
+      </c>
+      <c r="N10" s="7">
+        <v>14157</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M10" s="7">
-        <v>19</v>
-      </c>
-      <c r="N10" s="7">
-        <v>15776</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3581,7 @@
         <v>673</v>
       </c>
       <c r="D11" s="7">
-        <v>664407</v>
+        <v>639058</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>106</v>
@@ -3584,34 +3590,34 @@
         <v>107</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>993</v>
       </c>
       <c r="I11" s="7">
-        <v>706742</v>
+        <v>653871</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M11" s="7">
         <v>1666</v>
       </c>
       <c r="N11" s="7">
-        <v>1371150</v>
+        <v>1292929</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>113</v>
@@ -3626,7 +3632,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3641,7 +3647,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3656,7 +3662,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3679,7 +3685,7 @@
         <v>137</v>
       </c>
       <c r="D13" s="7">
-        <v>141887</v>
+        <v>126095</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>114</v>
@@ -3694,7 +3700,7 @@
         <v>190</v>
       </c>
       <c r="I13" s="7">
-        <v>147258</v>
+        <v>130345</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>117</v>
@@ -3709,7 +3715,7 @@
         <v>327</v>
       </c>
       <c r="N13" s="7">
-        <v>289145</v>
+        <v>256440</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>120</v>
@@ -3718,7 +3724,7 @@
         <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,46 +3736,46 @@
         <v>3227</v>
       </c>
       <c r="D14" s="7">
-        <v>3234808</v>
+        <v>3325794</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>5162</v>
       </c>
       <c r="I14" s="7">
-        <v>3652102</v>
+        <v>3523449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>8389</v>
       </c>
       <c r="N14" s="7">
-        <v>6886910</v>
+        <v>6849243</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,7 +3787,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3796,7 +3802,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3811,7 +3817,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
